--- a/google2015.xlsx
+++ b/google2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanislavermohin/Desktop/NSU/Экономика/Риск-менеджмент/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250D5AE5-DEAF-EA4A-A0B3-B5E7041B5BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB627B2C-319C-D448-B59D-67BFC9D63591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1420" windowWidth="27440" windowHeight="15100" activeTab="1" xr2:uid="{D72E1DF1-3250-B743-B0E8-FE874C63B381}"/>
+    <workbookView xWindow="180" yWindow="940" windowWidth="27440" windowHeight="15100" activeTab="1" xr2:uid="{D72E1DF1-3250-B743-B0E8-FE874C63B381}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1819,7 +1819,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1856,7 +1856,7 @@
     <row r="2" spans="1:6" ht="16">
       <c r="A2" s="3">
         <f>1.2*B2+1.4*C2+3.3*D2+0.6*E2+F2</f>
-        <v>11.834094749415559</v>
+        <v>11.387589934550512</v>
       </c>
       <c r="B2" s="4">
         <f>C9/C4</f>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D2" s="4">
         <f>C5/C4</f>
-        <v>0.13325647633256477</v>
+        <v>-2.0480130204801302E-3</v>
       </c>
       <c r="E2" s="4">
         <f>C6/C7</f>
@@ -1908,11 +1908,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="7">
-        <f>Data!C27</f>
-        <v>19650</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
+        <f>Data!C19</f>
+        <v>-302</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16">
@@ -2308,7 +2308,7 @@
   <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C196"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
